--- a/trunk/SAD - Software Architecture & Design/Rework/SAD+SEP-TimeLog-SonDang.xlsx
+++ b/trunk/SAD - Software Architecture & Design/Rework/SAD+SEP-TimeLog-SonDang.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Week</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Update - QA, Static model, Dynamic model, template, data model, constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update </t>
   </si>
 </sst>
 </file>
@@ -985,44 +988,44 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2368,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2462,7 +2465,7 @@
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A7" s="135">
+      <c r="A7" s="130">
         <v>1</v>
       </c>
       <c r="B7" s="82">
@@ -2478,10 +2481,10 @@
         <f t="shared" ref="E7:E10" si="0">D7-C7</f>
         <v>6.1805555555555669E-2</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="124" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="88" t="s">
@@ -2495,8 +2498,8 @@
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="134">
+      <c r="A8" s="130"/>
+      <c r="B8" s="129">
         <v>41059</v>
       </c>
       <c r="C8" s="86">
@@ -2509,8 +2512,8 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
       <c r="H8" s="88" t="s">
         <v>40</v>
       </c>
@@ -2519,8 +2522,8 @@
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="86">
         <v>0.89583333333333337</v>
       </c>
@@ -2531,8 +2534,8 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="88" t="s">
         <v>51</v>
       </c>
@@ -2541,7 +2544,7 @@
       <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A10" s="135"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="82">
         <v>41057</v>
       </c>
@@ -2555,8 +2558,8 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="88" t="s">
         <v>41</v>
       </c>
@@ -2568,7 +2571,7 @@
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="31.5">
-      <c r="A11" s="135"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="82">
         <v>41060</v>
       </c>
@@ -2582,10 +2585,10 @@
         <f>D11-C11</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="124" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="88" t="s">
@@ -2596,7 +2599,7 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A12" s="136"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="89">
         <v>41030</v>
       </c>
@@ -2610,8 +2613,8 @@
         <f>D12-C12</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="92" t="s">
         <v>46</v>
       </c>
@@ -2700,7 +2703,7 @@
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="133"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="89"/>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -2735,7 +2738,7 @@
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F17" s="131" t="s">
+      <c r="F17" s="136" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="95"/>
@@ -2764,11 +2767,11 @@
         <f t="shared" si="1"/>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="129" t="s">
+      <c r="F18" s="136"/>
+      <c r="G18" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="129" t="s">
+      <c r="H18" s="125" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="88"/>
@@ -2789,9 +2792,9 @@
         <f t="shared" si="1"/>
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
       <c r="I19" s="88"/>
       <c r="J19" s="97"/>
     </row>
@@ -2810,7 +2813,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="F20" s="130"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="109" t="s">
         <v>63</v>
       </c>
@@ -2821,7 +2824,7 @@
       <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:13" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A21" s="128"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="82">
         <v>41083</v>
       </c>
@@ -2883,10 +2886,10 @@
         <v>0.16597222222222219</v>
       </c>
       <c r="F23" s="83"/>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="132" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="40"/>
@@ -2909,8 +2912,8 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="F24" s="83"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="M24" s="38"/>
@@ -3285,16 +3288,24 @@
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="43"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="B41" s="50">
+        <v>41116</v>
+      </c>
+      <c r="C41" s="55">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D41" s="55">
+        <v>0.875</v>
+      </c>
       <c r="E41" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F41" s="118"/>
       <c r="G41" s="44"/>
-      <c r="H41" s="40"/>
+      <c r="H41" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
     </row>
@@ -3733,6 +3744,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="F11:F12"/>
@@ -3740,12 +3757,6 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
